--- a/Excel/oborot.xlsx
+++ b/Excel/oborot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13170" yWindow="915" windowWidth="13005" windowHeight="15255" activeTab="1"/>
+    <workbookView xWindow="13890" yWindow="1635" windowWidth="13005" windowHeight="15255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="плащане" sheetId="10" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -376,37 +376,8 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -524,17 +495,27 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -554,6 +535,47 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -570,7 +592,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D46" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D46" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:D46"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Номер на продукт"/>
@@ -583,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <sortState ref="A2:C31">
     <sortCondition sortBy="fontColor" ref="C2:C31" dxfId="1"/>
     <sortCondition descending="1" ref="C2:C31"/>
@@ -1565,7 +1587,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1923,12 +1945,43 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="top10" dxfId="4" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="10"/>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C5A976BA-5DEE-43D5-A125-1D39578435B9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C5A976BA-5DEE-43D5-A125-1D39578435B9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C31</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Excel/oborot.xlsx
+++ b/Excel/oborot.xlsx
@@ -300,7 +300,22 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -367,11 +382,6 @@
         <color rgb="FF9C0006"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -592,7 +602,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D46" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D46" totalsRowShown="0" headerRowDxfId="16">
   <autoFilter ref="A1:D46"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Номер на продукт"/>
@@ -605,15 +615,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <sortState ref="A2:C31">
-    <sortCondition sortBy="fontColor" ref="C2:C31" dxfId="1"/>
+    <sortCondition sortBy="fontColor" ref="C2:C31" dxfId="4"/>
     <sortCondition descending="1" ref="C2:C31"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Магазин" dataDxfId="8"/>
-    <tableColumn id="2" name="Дата" dataDxfId="7"/>
-    <tableColumn id="3" name="Приходи" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Магазин" dataDxfId="10"/>
+    <tableColumn id="2" name="Дата" dataDxfId="9"/>
+    <tableColumn id="3" name="Приходи" dataDxfId="8" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1587,7 +1597,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1945,8 +1955,8 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="top10" dxfId="4" priority="2" rank="10"/>
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="top10" dxfId="1" priority="4" rank="10"/>
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1957,6 +1967,15 @@
           <x14:id>{C5A976BA-5DEE-43D5-A125-1D39578435B9}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
